--- a/data/cleaned_data/2014_TX.xlsx
+++ b/data/cleaned_data/2014_TX.xlsx
@@ -2169,7 +2169,7 @@
         <v>262</v>
       </c>
       <c r="D2">
-        <v>262</v>
+        <v>433</v>
       </c>
       <c r="E2" t="s">
         <v>308</v>
@@ -2195,7 +2195,7 @@
         <v>263</v>
       </c>
       <c r="D3">
-        <v>87</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
         <v>309</v>
@@ -2221,7 +2221,7 @@
         <v>264</v>
       </c>
       <c r="D4">
-        <v>468</v>
+        <v>729</v>
       </c>
       <c r="E4" t="s">
         <v>310</v>
@@ -2247,7 +2247,7 @@
         <v>265</v>
       </c>
       <c r="D5">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
         <v>311</v>
@@ -2273,7 +2273,7 @@
         <v>266</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
         <v>312</v>
@@ -2299,7 +2299,7 @@
         <v>267</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>313</v>
@@ -2325,7 +2325,7 @@
         <v>268</v>
       </c>
       <c r="D8">
-        <v>285</v>
+        <v>391</v>
       </c>
       <c r="E8" t="s">
         <v>314</v>
@@ -2351,7 +2351,7 @@
         <v>269</v>
       </c>
       <c r="D9">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="E9" t="s">
         <v>315</v>
@@ -2377,7 +2377,7 @@
         <v>267</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
         <v>316</v>
@@ -2397,7 +2397,7 @@
         <v>269</v>
       </c>
       <c r="D11">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="E11" t="s">
         <v>317</v>
@@ -2423,7 +2423,7 @@
         <v>270</v>
       </c>
       <c r="D12">
-        <v>383</v>
+        <v>648</v>
       </c>
       <c r="E12" t="s">
         <v>318</v>
@@ -2449,7 +2449,7 @@
         <v>265</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
         <v>319</v>
@@ -2469,7 +2469,7 @@
         <v>269</v>
       </c>
       <c r="D14">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="E14" t="s">
         <v>320</v>
@@ -2495,7 +2495,7 @@
         <v>271</v>
       </c>
       <c r="D15">
-        <v>1620</v>
+        <v>2622</v>
       </c>
       <c r="E15" t="s">
         <v>321</v>
@@ -2521,7 +2521,7 @@
         <v>272</v>
       </c>
       <c r="D16">
-        <v>15374</v>
+        <v>20142</v>
       </c>
       <c r="E16" t="s">
         <v>322</v>
@@ -2547,7 +2547,7 @@
         <v>273</v>
       </c>
       <c r="D17">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
         <v>323</v>
@@ -2567,7 +2567,7 @@
         <v>274</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
         <v>297</v>
@@ -2587,7 +2587,7 @@
         <v>275</v>
       </c>
       <c r="D19">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
         <v>324</v>
@@ -2607,7 +2607,7 @@
         <v>264</v>
       </c>
       <c r="D20">
-        <v>751</v>
+        <v>1115</v>
       </c>
       <c r="E20" t="s">
         <v>325</v>
@@ -2633,7 +2633,7 @@
         <v>276</v>
       </c>
       <c r="D21">
-        <v>1295</v>
+        <v>1925</v>
       </c>
       <c r="E21" t="s">
         <v>326</v>
@@ -2659,7 +2659,7 @@
         <v>270</v>
       </c>
       <c r="D22">
-        <v>904</v>
+        <v>1768</v>
       </c>
       <c r="E22" t="s">
         <v>327</v>
@@ -2685,7 +2685,7 @@
         <v>274</v>
       </c>
       <c r="D23">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
         <v>328</v>
@@ -2725,7 +2725,7 @@
         <v>277</v>
       </c>
       <c r="D25">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
         <v>330</v>
@@ -2745,7 +2745,7 @@
         <v>278</v>
       </c>
       <c r="D26">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="E26" t="s">
         <v>331</v>
@@ -2771,7 +2771,7 @@
         <v>275</v>
       </c>
       <c r="D27">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="E27" t="s">
         <v>332</v>
@@ -2797,7 +2797,7 @@
         <v>279</v>
       </c>
       <c r="D28">
-        <v>230</v>
+        <v>370</v>
       </c>
       <c r="E28" t="s">
         <v>333</v>
@@ -2817,7 +2817,7 @@
         <v>280</v>
       </c>
       <c r="D29">
-        <v>277</v>
+        <v>388</v>
       </c>
       <c r="E29" t="s">
         <v>334</v>
@@ -2843,7 +2843,7 @@
         <v>265</v>
       </c>
       <c r="D30">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
         <v>335</v>
@@ -2869,7 +2869,7 @@
         <v>275</v>
       </c>
       <c r="D31">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
         <v>336</v>
@@ -2895,7 +2895,7 @@
         <v>281</v>
       </c>
       <c r="D32">
-        <v>2625</v>
+        <v>3279</v>
       </c>
       <c r="E32" t="s">
         <v>337</v>
@@ -2921,7 +2921,7 @@
         <v>275</v>
       </c>
       <c r="D33">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="E33" t="s">
         <v>338</v>
@@ -2947,7 +2947,7 @@
         <v>265</v>
       </c>
       <c r="D34">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E34" t="s">
         <v>339</v>
@@ -2973,7 +2973,7 @@
         <v>265</v>
       </c>
       <c r="D35">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="E35" t="s">
         <v>340</v>
@@ -2993,7 +2993,7 @@
         <v>275</v>
       </c>
       <c r="D36">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
         <v>341</v>
@@ -3013,7 +3013,7 @@
         <v>279</v>
       </c>
       <c r="D37">
-        <v>182</v>
+        <v>340</v>
       </c>
       <c r="E37" t="s">
         <v>342</v>
@@ -3039,7 +3039,7 @@
         <v>282</v>
       </c>
       <c r="D38">
-        <v>248</v>
+        <v>383</v>
       </c>
       <c r="E38" t="s">
         <v>343</v>
@@ -3065,7 +3065,7 @@
         <v>267</v>
       </c>
       <c r="D39">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
         <v>344</v>
@@ -3085,7 +3085,7 @@
         <v>278</v>
       </c>
       <c r="D40">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="E40" t="s">
         <v>345</v>
@@ -3111,7 +3111,7 @@
         <v>278</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E41" t="s">
         <v>281</v>
@@ -3131,7 +3131,7 @@
         <v>266</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
         <v>283</v>
@@ -3151,7 +3151,7 @@
         <v>275</v>
       </c>
       <c r="D43">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="E43" t="s">
         <v>346</v>
@@ -3171,7 +3171,7 @@
         <v>283</v>
       </c>
       <c r="D44">
-        <v>3660</v>
+        <v>5772</v>
       </c>
       <c r="E44" t="s">
         <v>347</v>
@@ -3197,7 +3197,7 @@
         <v>267</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E45" t="s">
         <v>268</v>
@@ -3217,7 +3217,7 @@
         <v>266</v>
       </c>
       <c r="D46">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="E46" t="s">
         <v>348</v>
@@ -3237,7 +3237,7 @@
         <v>279</v>
       </c>
       <c r="D47">
-        <v>569</v>
+        <v>875</v>
       </c>
       <c r="E47" t="s">
         <v>349</v>
@@ -3263,7 +3263,7 @@
         <v>278</v>
       </c>
       <c r="D48">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E48" t="s">
         <v>350</v>
@@ -3283,7 +3283,7 @@
         <v>274</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E49" t="s">
         <v>351</v>
@@ -3303,7 +3303,7 @@
         <v>279</v>
       </c>
       <c r="D50">
-        <v>186</v>
+        <v>295</v>
       </c>
       <c r="E50" t="s">
         <v>352</v>
@@ -3329,7 +3329,7 @@
         <v>266</v>
       </c>
       <c r="D51">
-        <v>223</v>
+        <v>414</v>
       </c>
       <c r="E51" t="s">
         <v>353</v>
@@ -3355,7 +3355,7 @@
         <v>274</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E52" t="s">
         <v>290</v>
@@ -3375,7 +3375,7 @@
         <v>265</v>
       </c>
       <c r="D53">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E53" t="s">
         <v>354</v>
@@ -3395,7 +3395,7 @@
         <v>266</v>
       </c>
       <c r="D54">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="E54" t="s">
         <v>355</v>
@@ -3415,7 +3415,7 @@
         <v>274</v>
       </c>
       <c r="D55">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E55" t="s">
         <v>356</v>
@@ -3441,7 +3441,7 @@
         <v>277</v>
       </c>
       <c r="D56">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="E56" t="s">
         <v>357</v>
@@ -3461,7 +3461,7 @@
         <v>269</v>
       </c>
       <c r="D57">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E57" t="s">
         <v>358</v>
@@ -3481,7 +3481,7 @@
         <v>284</v>
       </c>
       <c r="D58">
-        <v>18013</v>
+        <v>24980</v>
       </c>
       <c r="E58" t="s">
         <v>359</v>
@@ -3507,7 +3507,7 @@
         <v>277</v>
       </c>
       <c r="D59">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="E59" t="s">
         <v>360</v>
@@ -3533,7 +3533,7 @@
         <v>265</v>
       </c>
       <c r="D60">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E60" t="s">
         <v>361</v>
@@ -3559,7 +3559,7 @@
         <v>267</v>
       </c>
       <c r="D61">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E61" t="s">
         <v>287</v>
@@ -3579,7 +3579,7 @@
         <v>285</v>
       </c>
       <c r="D62">
-        <v>2853</v>
+        <v>4231</v>
       </c>
       <c r="E62" t="s">
         <v>362</v>
@@ -3605,7 +3605,7 @@
         <v>286</v>
       </c>
       <c r="D63">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="E63" t="s">
         <v>363</v>
@@ -3625,7 +3625,7 @@
         <v>267</v>
       </c>
       <c r="D64">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E64" t="s">
         <v>271</v>
@@ -3645,7 +3645,7 @@
         <v>282</v>
       </c>
       <c r="D65">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="E65" t="s">
         <v>364</v>
@@ -3665,7 +3665,7 @@
         <v>275</v>
       </c>
       <c r="D66">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E66" t="s">
         <v>365</v>
@@ -3685,7 +3685,7 @@
         <v>265</v>
       </c>
       <c r="D67">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="E67" t="s">
         <v>366</v>
@@ -3711,7 +3711,7 @@
         <v>273</v>
       </c>
       <c r="D68">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="E68" t="s">
         <v>367</v>
@@ -3731,7 +3731,7 @@
         <v>287</v>
       </c>
       <c r="D69">
-        <v>945</v>
+        <v>1770</v>
       </c>
       <c r="E69" t="s">
         <v>368</v>
@@ -3757,7 +3757,7 @@
         <v>267</v>
       </c>
       <c r="D70">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E70" t="s">
         <v>351</v>
@@ -3777,7 +3777,7 @@
         <v>288</v>
       </c>
       <c r="D71">
-        <v>639</v>
+        <v>1024</v>
       </c>
       <c r="E71" t="s">
         <v>369</v>
@@ -3803,7 +3803,7 @@
         <v>289</v>
       </c>
       <c r="D72">
-        <v>4768</v>
+        <v>6762</v>
       </c>
       <c r="E72" t="s">
         <v>370</v>
@@ -3829,7 +3829,7 @@
         <v>290</v>
       </c>
       <c r="D73">
-        <v>231</v>
+        <v>396</v>
       </c>
       <c r="E73" t="s">
         <v>371</v>
@@ -3855,7 +3855,7 @@
         <v>286</v>
       </c>
       <c r="D74">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="E74" t="s">
         <v>372</v>
@@ -3881,7 +3881,7 @@
         <v>266</v>
       </c>
       <c r="D75">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="E75" t="s">
         <v>373</v>
@@ -3907,7 +3907,7 @@
         <v>273</v>
       </c>
       <c r="D76">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c r="E76" t="s">
         <v>374</v>
@@ -3927,7 +3927,7 @@
         <v>277</v>
       </c>
       <c r="D77">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E77" t="s">
         <v>375</v>
@@ -3947,7 +3947,7 @@
         <v>278</v>
       </c>
       <c r="D78">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E78" t="s">
         <v>305</v>
@@ -3967,7 +3967,7 @@
         <v>274</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E79" t="s">
         <v>286</v>
@@ -3987,7 +3987,7 @@
         <v>291</v>
       </c>
       <c r="D80">
-        <v>1998</v>
+        <v>3029</v>
       </c>
       <c r="E80" t="s">
         <v>376</v>
@@ -4013,7 +4013,7 @@
         <v>275</v>
       </c>
       <c r="D81">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E81" t="s">
         <v>377</v>
@@ -4033,7 +4033,7 @@
         <v>269</v>
       </c>
       <c r="D82">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="E82" t="s">
         <v>378</v>
@@ -4053,7 +4053,7 @@
         <v>274</v>
       </c>
       <c r="D83">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="E83" t="s">
         <v>379</v>
@@ -4079,7 +4079,7 @@
         <v>266</v>
       </c>
       <c r="D84">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="E84" t="s">
         <v>380</v>
@@ -4099,7 +4099,7 @@
         <v>291</v>
       </c>
       <c r="D85">
-        <v>1371</v>
+        <v>2094</v>
       </c>
       <c r="E85" t="s">
         <v>381</v>
@@ -4125,7 +4125,7 @@
         <v>269</v>
       </c>
       <c r="D86">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E86" t="s">
         <v>382</v>
@@ -4145,7 +4145,7 @@
         <v>275</v>
       </c>
       <c r="D87">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="E87" t="s">
         <v>383</v>
@@ -4171,7 +4171,7 @@
         <v>275</v>
       </c>
       <c r="D88">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E88" t="s">
         <v>384</v>
@@ -4191,7 +4191,7 @@
         <v>265</v>
       </c>
       <c r="D89">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E89" t="s">
         <v>357</v>
@@ -4217,7 +4217,7 @@
         <v>282</v>
       </c>
       <c r="D90">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="E90" t="s">
         <v>385</v>
@@ -4237,7 +4237,7 @@
         <v>275</v>
       </c>
       <c r="D91">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="E91" t="s">
         <v>320</v>
@@ -4263,7 +4263,7 @@
         <v>292</v>
       </c>
       <c r="D92">
-        <v>523</v>
+        <v>1031</v>
       </c>
       <c r="E92" t="s">
         <v>386</v>
@@ -4289,7 +4289,7 @@
         <v>293</v>
       </c>
       <c r="D93">
-        <v>1471</v>
+        <v>1952</v>
       </c>
       <c r="E93" t="s">
         <v>387</v>
@@ -4315,7 +4315,7 @@
         <v>266</v>
       </c>
       <c r="D94">
-        <v>204</v>
+        <v>340</v>
       </c>
       <c r="E94" t="s">
         <v>331</v>
@@ -4335,7 +4335,7 @@
         <v>280</v>
       </c>
       <c r="D95">
-        <v>539</v>
+        <v>873</v>
       </c>
       <c r="E95" t="s">
         <v>388</v>
@@ -4361,7 +4361,7 @@
         <v>269</v>
       </c>
       <c r="D96">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="E96" t="s">
         <v>389</v>
@@ -4387,7 +4387,7 @@
         <v>267</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E97" t="s">
         <v>390</v>
@@ -4407,7 +4407,7 @@
         <v>286</v>
       </c>
       <c r="D98">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="E98" t="s">
         <v>391</v>
@@ -4427,7 +4427,7 @@
         <v>278</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E99" t="s">
         <v>392</v>
@@ -4447,7 +4447,7 @@
         <v>278</v>
       </c>
       <c r="D100">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E100" t="s">
         <v>390</v>
@@ -4467,7 +4467,7 @@
         <v>282</v>
       </c>
       <c r="D101">
-        <v>256</v>
+        <v>392</v>
       </c>
       <c r="E101" t="s">
         <v>393</v>
@@ -4493,7 +4493,7 @@
         <v>294</v>
       </c>
       <c r="D102">
-        <v>34995</v>
+        <v>45704</v>
       </c>
       <c r="E102" t="s">
         <v>394</v>
@@ -4519,7 +4519,7 @@
         <v>270</v>
       </c>
       <c r="D103">
-        <v>385</v>
+        <v>608</v>
       </c>
       <c r="E103" t="s">
         <v>395</v>
@@ -4545,7 +4545,7 @@
         <v>265</v>
       </c>
       <c r="D104">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E104" t="s">
         <v>396</v>
@@ -4565,7 +4565,7 @@
         <v>277</v>
       </c>
       <c r="D105">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E105" t="s">
         <v>397</v>
@@ -4585,7 +4585,7 @@
         <v>264</v>
       </c>
       <c r="D106">
-        <v>738</v>
+        <v>1237</v>
       </c>
       <c r="E106" t="s">
         <v>398</v>
@@ -4611,7 +4611,7 @@
         <v>265</v>
       </c>
       <c r="D107">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E107" t="s">
         <v>339</v>
@@ -4631,7 +4631,7 @@
         <v>295</v>
       </c>
       <c r="D108">
-        <v>358</v>
+        <v>569</v>
       </c>
       <c r="E108" t="s">
         <v>399</v>
@@ -4657,7 +4657,7 @@
         <v>296</v>
       </c>
       <c r="D109">
-        <v>6897</v>
+        <v>8930</v>
       </c>
       <c r="E109" t="s">
         <v>400</v>
@@ -4683,7 +4683,7 @@
         <v>270</v>
       </c>
       <c r="D110">
-        <v>164</v>
+        <v>292</v>
       </c>
       <c r="E110" t="s">
         <v>401</v>
@@ -4703,7 +4703,7 @@
         <v>286</v>
       </c>
       <c r="D111">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="E111" t="s">
         <v>402</v>
@@ -4729,7 +4729,7 @@
         <v>269</v>
       </c>
       <c r="D112">
-        <v>294</v>
+        <v>413</v>
       </c>
       <c r="E112" t="s">
         <v>403</v>
@@ -4755,7 +4755,7 @@
         <v>269</v>
       </c>
       <c r="D113">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="E113" t="s">
         <v>404</v>
@@ -4781,7 +4781,7 @@
         <v>277</v>
       </c>
       <c r="D114">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="E114" t="s">
         <v>405</v>
@@ -4801,7 +4801,7 @@
         <v>277</v>
       </c>
       <c r="D115">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="E115" t="s">
         <v>406</v>
@@ -4827,7 +4827,7 @@
         <v>280</v>
       </c>
       <c r="D116">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="E116" t="s">
         <v>272</v>
@@ -4853,7 +4853,7 @@
         <v>264</v>
       </c>
       <c r="D117">
-        <v>466</v>
+        <v>627</v>
       </c>
       <c r="E117" t="s">
         <v>407</v>
@@ -4879,7 +4879,7 @@
         <v>269</v>
       </c>
       <c r="D118">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E118" t="s">
         <v>408</v>
@@ -4905,7 +4905,7 @@
         <v>262</v>
       </c>
       <c r="D119">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E119" t="s">
         <v>409</v>
@@ -4931,7 +4931,7 @@
         <v>266</v>
       </c>
       <c r="D120">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E120" t="s">
         <v>410</v>
@@ -4951,7 +4951,7 @@
         <v>266</v>
       </c>
       <c r="D121">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="E121" t="s">
         <v>411</v>
@@ -4971,7 +4971,7 @@
         <v>266</v>
       </c>
       <c r="D122">
-        <v>255</v>
+        <v>350</v>
       </c>
       <c r="E122" t="s">
         <v>412</v>
@@ -4991,7 +4991,7 @@
         <v>278</v>
       </c>
       <c r="D123">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E123" t="s">
         <v>302</v>
@@ -5011,7 +5011,7 @@
         <v>297</v>
       </c>
       <c r="D124">
-        <v>2143</v>
+        <v>3119</v>
       </c>
       <c r="E124" t="s">
         <v>413</v>
@@ -5037,7 +5037,7 @@
         <v>277</v>
       </c>
       <c r="D125">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E125" t="s">
         <v>319</v>
@@ -5057,7 +5057,7 @@
         <v>262</v>
       </c>
       <c r="D126">
-        <v>366</v>
+        <v>510</v>
       </c>
       <c r="E126" t="s">
         <v>414</v>
@@ -5083,7 +5083,7 @@
         <v>288</v>
       </c>
       <c r="D127">
-        <v>635</v>
+        <v>1095</v>
       </c>
       <c r="E127" t="s">
         <v>415</v>
@@ -5109,7 +5109,7 @@
         <v>266</v>
       </c>
       <c r="D128">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="E128" t="s">
         <v>416</v>
@@ -5135,7 +5135,7 @@
         <v>286</v>
       </c>
       <c r="D129">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="E129" t="s">
         <v>417</v>
@@ -5155,7 +5155,7 @@
         <v>298</v>
       </c>
       <c r="D130">
-        <v>426</v>
+        <v>633</v>
       </c>
       <c r="E130" t="s">
         <v>418</v>
@@ -5181,7 +5181,7 @@
         <v>266</v>
       </c>
       <c r="D131">
-        <v>121</v>
+        <v>251</v>
       </c>
       <c r="E131" t="s">
         <v>419</v>
@@ -5207,7 +5207,7 @@
         <v>267</v>
       </c>
       <c r="D132">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E132" t="s">
         <v>420</v>
@@ -5233,7 +5233,7 @@
         <v>274</v>
       </c>
       <c r="D133">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
         <v>279</v>
@@ -5253,7 +5253,7 @@
         <v>280</v>
       </c>
       <c r="D134">
-        <v>267</v>
+        <v>416</v>
       </c>
       <c r="E134" t="s">
         <v>421</v>
@@ -5279,7 +5279,7 @@
         <v>267</v>
       </c>
       <c r="D135">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E135" t="s">
         <v>422</v>
@@ -5299,7 +5299,7 @@
         <v>267</v>
       </c>
       <c r="D136">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
         <v>423</v>
@@ -5319,7 +5319,7 @@
         <v>267</v>
       </c>
       <c r="D137">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E137" t="s">
         <v>305</v>
@@ -5339,7 +5339,7 @@
         <v>286</v>
       </c>
       <c r="D138">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="E138" t="s">
         <v>424</v>
@@ -5365,7 +5365,7 @@
         <v>274</v>
       </c>
       <c r="D139">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E139" t="s">
         <v>287</v>
@@ -5385,7 +5385,7 @@
         <v>270</v>
       </c>
       <c r="D140">
-        <v>319</v>
+        <v>430</v>
       </c>
       <c r="E140" t="s">
         <v>425</v>
@@ -5411,7 +5411,7 @@
         <v>275</v>
       </c>
       <c r="D141">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E141" t="s">
         <v>358</v>
@@ -5431,7 +5431,7 @@
         <v>274</v>
       </c>
       <c r="D142">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="E142" t="s">
         <v>426</v>
@@ -5457,7 +5457,7 @@
         <v>268</v>
       </c>
       <c r="D143">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="E143" t="s">
         <v>427</v>
@@ -5477,7 +5477,7 @@
         <v>266</v>
       </c>
       <c r="D144">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="E144" t="s">
         <v>379</v>
@@ -5497,7 +5497,7 @@
         <v>262</v>
       </c>
       <c r="D145">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="E145" t="s">
         <v>428</v>
@@ -5517,7 +5517,7 @@
         <v>262</v>
       </c>
       <c r="D146">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="E146" t="s">
         <v>429</v>
@@ -5537,7 +5537,7 @@
         <v>290</v>
       </c>
       <c r="D147">
-        <v>370</v>
+        <v>589</v>
       </c>
       <c r="E147" t="s">
         <v>430</v>
@@ -5563,7 +5563,7 @@
         <v>269</v>
       </c>
       <c r="D148">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="E148" t="s">
         <v>431</v>
@@ -5583,7 +5583,7 @@
         <v>267</v>
       </c>
       <c r="D149">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E149" t="s">
         <v>279</v>
@@ -5603,7 +5603,7 @@
         <v>264</v>
       </c>
       <c r="D150">
-        <v>170</v>
+        <v>268</v>
       </c>
       <c r="E150" t="s">
         <v>389</v>
@@ -5623,7 +5623,7 @@
         <v>265</v>
       </c>
       <c r="D151">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="E151" t="s">
         <v>432</v>
@@ -5643,7 +5643,7 @@
         <v>278</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E152" t="s">
         <v>433</v>
@@ -5669,7 +5669,7 @@
         <v>299</v>
       </c>
       <c r="D153">
-        <v>3300</v>
+        <v>4058</v>
       </c>
       <c r="E153" t="s">
         <v>434</v>
@@ -5695,7 +5695,7 @@
         <v>267</v>
       </c>
       <c r="D154">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E154" t="s">
         <v>307</v>
@@ -5721,7 +5721,7 @@
         <v>295</v>
       </c>
       <c r="D155">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="E155" t="s">
         <v>435</v>
@@ -5741,7 +5741,7 @@
         <v>274</v>
       </c>
       <c r="D156">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E156" t="s">
         <v>382</v>
@@ -5761,7 +5761,7 @@
         <v>273</v>
       </c>
       <c r="D157">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="E157" t="s">
         <v>436</v>
@@ -5787,7 +5787,7 @@
         <v>267</v>
       </c>
       <c r="D158">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E158" t="s">
         <v>437</v>
@@ -5807,7 +5807,7 @@
         <v>275</v>
       </c>
       <c r="D159">
-        <v>210</v>
+        <v>312</v>
       </c>
       <c r="E159" t="s">
         <v>438</v>
@@ -5833,7 +5833,7 @@
         <v>269</v>
       </c>
       <c r="D160">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="E160" t="s">
         <v>439</v>
@@ -5859,7 +5859,7 @@
         <v>273</v>
       </c>
       <c r="D161">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E161" t="s">
         <v>440</v>
@@ -5879,7 +5879,7 @@
         <v>300</v>
       </c>
       <c r="D162">
-        <v>1809</v>
+        <v>2788</v>
       </c>
       <c r="E162" t="s">
         <v>441</v>
@@ -5905,7 +5905,7 @@
         <v>273</v>
       </c>
       <c r="D163">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E163" t="s">
         <v>442</v>
@@ -5925,7 +5925,7 @@
         <v>265</v>
       </c>
       <c r="D164">
-        <v>152</v>
+        <v>249</v>
       </c>
       <c r="E164" t="s">
         <v>443</v>
@@ -5951,7 +5951,7 @@
         <v>267</v>
       </c>
       <c r="D165">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E165" t="s">
         <v>444</v>
@@ -5971,7 +5971,7 @@
         <v>301</v>
       </c>
       <c r="D166">
-        <v>1043</v>
+        <v>1652</v>
       </c>
       <c r="E166" t="s">
         <v>445</v>
@@ -5997,7 +5997,7 @@
         <v>262</v>
       </c>
       <c r="D167">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="E167" t="s">
         <v>446</v>
@@ -6017,7 +6017,7 @@
         <v>266</v>
       </c>
       <c r="D168">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E168" t="s">
         <v>289</v>
@@ -6037,7 +6037,7 @@
         <v>275</v>
       </c>
       <c r="D169">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E169" t="s">
         <v>447</v>
@@ -6057,7 +6057,7 @@
         <v>275</v>
       </c>
       <c r="D170">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="E170" t="s">
         <v>448</v>
@@ -6077,7 +6077,7 @@
         <v>302</v>
       </c>
       <c r="D171">
-        <v>2251</v>
+        <v>3580</v>
       </c>
       <c r="E171" t="s">
         <v>449</v>
@@ -6103,7 +6103,7 @@
         <v>269</v>
       </c>
       <c r="D172">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="E172" t="s">
         <v>309</v>
@@ -6129,7 +6129,7 @@
         <v>275</v>
       </c>
       <c r="D173">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E173" t="s">
         <v>450</v>
@@ -6149,7 +6149,7 @@
         <v>274</v>
       </c>
       <c r="D174">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E174" t="s">
         <v>451</v>
@@ -6169,7 +6169,7 @@
         <v>263</v>
       </c>
       <c r="D175">
-        <v>346</v>
+        <v>511</v>
       </c>
       <c r="E175" t="s">
         <v>452</v>
@@ -6195,7 +6195,7 @@
         <v>262</v>
       </c>
       <c r="D176">
-        <v>247</v>
+        <v>389</v>
       </c>
       <c r="E176" t="s">
         <v>453</v>
@@ -6221,7 +6221,7 @@
         <v>277</v>
       </c>
       <c r="D177">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="E177" t="s">
         <v>272</v>
@@ -6241,7 +6241,7 @@
         <v>277</v>
       </c>
       <c r="D178">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="E178" t="s">
         <v>454</v>
@@ -6267,7 +6267,7 @@
         <v>303</v>
       </c>
       <c r="D179">
-        <v>1662</v>
+        <v>2450</v>
       </c>
       <c r="E179" t="s">
         <v>455</v>
@@ -6293,7 +6293,7 @@
         <v>273</v>
       </c>
       <c r="D180">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E180" t="s">
         <v>456</v>
@@ -6313,7 +6313,7 @@
         <v>266</v>
       </c>
       <c r="D181">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E181" t="s">
         <v>457</v>
@@ -6339,7 +6339,7 @@
         <v>304</v>
       </c>
       <c r="D182">
-        <v>517</v>
+        <v>781</v>
       </c>
       <c r="E182" t="s">
         <v>458</v>
@@ -6365,7 +6365,7 @@
         <v>269</v>
       </c>
       <c r="D183">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="E183" t="s">
         <v>459</v>
@@ -6391,7 +6391,7 @@
         <v>263</v>
       </c>
       <c r="D184">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="E184" t="s">
         <v>460</v>
@@ -6411,7 +6411,7 @@
         <v>280</v>
       </c>
       <c r="D185">
-        <v>483</v>
+        <v>806</v>
       </c>
       <c r="E185" t="s">
         <v>461</v>
@@ -6437,7 +6437,7 @@
         <v>275</v>
       </c>
       <c r="D186">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E186" t="s">
         <v>462</v>
@@ -6457,7 +6457,7 @@
         <v>268</v>
       </c>
       <c r="D187">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="E187" t="s">
         <v>463</v>
@@ -6477,7 +6477,7 @@
         <v>282</v>
       </c>
       <c r="D188">
-        <v>214</v>
+        <v>376</v>
       </c>
       <c r="E188" t="s">
         <v>464</v>
@@ -6497,7 +6497,7 @@
         <v>281</v>
       </c>
       <c r="D189">
-        <v>876</v>
+        <v>1301</v>
       </c>
       <c r="E189" t="s">
         <v>465</v>
@@ -6523,7 +6523,7 @@
         <v>274</v>
       </c>
       <c r="D190">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E190" t="s">
         <v>289</v>
@@ -6543,7 +6543,7 @@
         <v>278</v>
       </c>
       <c r="D191">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E191" t="s">
         <v>466</v>
@@ -6563,7 +6563,7 @@
         <v>270</v>
       </c>
       <c r="D192">
-        <v>474</v>
+        <v>748</v>
       </c>
       <c r="E192" t="s">
         <v>467</v>
@@ -6589,7 +6589,7 @@
         <v>266</v>
       </c>
       <c r="D193">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E193" t="s">
         <v>468</v>
@@ -6609,7 +6609,7 @@
         <v>278</v>
       </c>
       <c r="D194">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E194" t="s">
         <v>289</v>
@@ -6629,7 +6629,7 @@
         <v>274</v>
       </c>
       <c r="D195">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="E195" t="s">
         <v>469</v>
@@ -6649,7 +6649,7 @@
         <v>295</v>
       </c>
       <c r="D196">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="E196" t="s">
         <v>385</v>
@@ -6675,7 +6675,7 @@
         <v>270</v>
       </c>
       <c r="D197">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E197" t="s">
         <v>470</v>
@@ -6695,7 +6695,7 @@
         <v>266</v>
       </c>
       <c r="D198">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E198" t="s">
         <v>471</v>
@@ -6721,7 +6721,7 @@
         <v>274</v>
       </c>
       <c r="D199">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E199" t="s">
         <v>336</v>
@@ -6747,7 +6747,7 @@
         <v>265</v>
       </c>
       <c r="D200">
-        <v>295</v>
+        <v>423</v>
       </c>
       <c r="E200" t="s">
         <v>472</v>
@@ -6773,7 +6773,7 @@
         <v>269</v>
       </c>
       <c r="D201">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="E201" t="s">
         <v>473</v>
@@ -6793,7 +6793,7 @@
         <v>270</v>
       </c>
       <c r="D202">
-        <v>230</v>
+        <v>341</v>
       </c>
       <c r="E202" t="s">
         <v>474</v>
@@ -6819,7 +6819,7 @@
         <v>266</v>
       </c>
       <c r="D203">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E203" t="s">
         <v>475</v>
@@ -6839,7 +6839,7 @@
         <v>265</v>
       </c>
       <c r="D204">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E204" t="s">
         <v>397</v>
@@ -6859,7 +6859,7 @@
         <v>269</v>
       </c>
       <c r="D205">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="E205" t="s">
         <v>476</v>
@@ -6879,7 +6879,7 @@
         <v>290</v>
       </c>
       <c r="D206">
-        <v>308</v>
+        <v>432</v>
       </c>
       <c r="E206" t="s">
         <v>477</v>
@@ -6905,7 +6905,7 @@
         <v>278</v>
       </c>
       <c r="D207">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E207" t="s">
         <v>283</v>
@@ -6925,7 +6925,7 @@
         <v>267</v>
       </c>
       <c r="D208">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E208" t="s">
         <v>392</v>
@@ -6945,7 +6945,7 @@
         <v>277</v>
       </c>
       <c r="D209">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="E209" t="s">
         <v>478</v>
@@ -6971,7 +6971,7 @@
         <v>278</v>
       </c>
       <c r="D210">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E210" t="s">
         <v>283</v>
@@ -6991,7 +6991,7 @@
         <v>295</v>
       </c>
       <c r="D211">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="E211" t="s">
         <v>479</v>
@@ -7011,7 +7011,7 @@
         <v>274</v>
       </c>
       <c r="D212">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E212" t="s">
         <v>299</v>
@@ -7031,7 +7031,7 @@
         <v>305</v>
       </c>
       <c r="D213">
-        <v>1690</v>
+        <v>2494</v>
       </c>
       <c r="E213" t="s">
         <v>480</v>
@@ -7057,7 +7057,7 @@
         <v>265</v>
       </c>
       <c r="D214">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E214" t="s">
         <v>481</v>
@@ -7077,7 +7077,7 @@
         <v>286</v>
       </c>
       <c r="D215">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="E215" t="s">
         <v>482</v>
@@ -7103,7 +7103,7 @@
         <v>274</v>
       </c>
       <c r="D216">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E216" t="s">
         <v>483</v>
@@ -7123,7 +7123,7 @@
         <v>278</v>
       </c>
       <c r="D217">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E217" t="s">
         <v>271</v>
@@ -7149,7 +7149,7 @@
         <v>274</v>
       </c>
       <c r="D218">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E218" t="s">
         <v>484</v>
@@ -7169,7 +7169,7 @@
         <v>265</v>
       </c>
       <c r="D219">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="E219" t="s">
         <v>382</v>
@@ -7189,7 +7189,7 @@
         <v>274</v>
       </c>
       <c r="D220">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E220" t="s">
         <v>485</v>
@@ -7209,7 +7209,7 @@
         <v>306</v>
       </c>
       <c r="D221">
-        <v>10773</v>
+        <v>16014</v>
       </c>
       <c r="E221" t="s">
         <v>486</v>
@@ -7235,7 +7235,7 @@
         <v>281</v>
       </c>
       <c r="D222">
-        <v>1034</v>
+        <v>1664</v>
       </c>
       <c r="E222" t="s">
         <v>487</v>
@@ -7261,7 +7261,7 @@
         <v>274</v>
       </c>
       <c r="D223">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E223" t="s">
         <v>298</v>
@@ -7281,7 +7281,7 @@
         <v>265</v>
       </c>
       <c r="D224">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="E224" t="s">
         <v>488</v>
@@ -7301,7 +7301,7 @@
         <v>267</v>
       </c>
       <c r="D225">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E225" t="s">
         <v>276</v>
@@ -7321,7 +7321,7 @@
         <v>286</v>
       </c>
       <c r="D226">
-        <v>186</v>
+        <v>332</v>
       </c>
       <c r="E226" t="s">
         <v>393</v>
@@ -7347,7 +7347,7 @@
         <v>280</v>
       </c>
       <c r="D227">
-        <v>699</v>
+        <v>1118</v>
       </c>
       <c r="E227" t="s">
         <v>489</v>
@@ -7373,7 +7373,7 @@
         <v>307</v>
       </c>
       <c r="D228">
-        <v>6662</v>
+        <v>11482</v>
       </c>
       <c r="E228" t="s">
         <v>490</v>
@@ -7399,7 +7399,7 @@
         <v>275</v>
       </c>
       <c r="D229">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="E229" t="s">
         <v>491</v>
@@ -7419,7 +7419,7 @@
         <v>269</v>
       </c>
       <c r="D230">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="E230" t="s">
         <v>358</v>
@@ -7439,7 +7439,7 @@
         <v>277</v>
       </c>
       <c r="D231">
-        <v>143</v>
+        <v>264</v>
       </c>
       <c r="E231" t="s">
         <v>492</v>
@@ -7465,7 +7465,7 @@
         <v>269</v>
       </c>
       <c r="D232">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E232" t="s">
         <v>493</v>
@@ -7485,7 +7485,7 @@
         <v>266</v>
       </c>
       <c r="D233">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="E233" t="s">
         <v>494</v>
@@ -7511,7 +7511,7 @@
         <v>275</v>
       </c>
       <c r="D234">
-        <v>243</v>
+        <v>342</v>
       </c>
       <c r="E234" t="s">
         <v>495</v>
@@ -7537,7 +7537,7 @@
         <v>262</v>
       </c>
       <c r="D235">
-        <v>309</v>
+        <v>427</v>
       </c>
       <c r="E235" t="s">
         <v>496</v>
@@ -7557,7 +7557,7 @@
         <v>282</v>
       </c>
       <c r="D236">
-        <v>465</v>
+        <v>696</v>
       </c>
       <c r="E236" t="s">
         <v>497</v>
@@ -7583,7 +7583,7 @@
         <v>293</v>
       </c>
       <c r="D237">
-        <v>362</v>
+        <v>550</v>
       </c>
       <c r="E237" t="s">
         <v>498</v>
@@ -7609,7 +7609,7 @@
         <v>263</v>
       </c>
       <c r="D238">
-        <v>264</v>
+        <v>342</v>
       </c>
       <c r="E238" t="s">
         <v>499</v>
@@ -7635,7 +7635,7 @@
         <v>292</v>
       </c>
       <c r="D239">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="E239" t="s">
         <v>500</v>
@@ -7655,7 +7655,7 @@
         <v>282</v>
       </c>
       <c r="D240">
-        <v>156</v>
+        <v>266</v>
       </c>
       <c r="E240" t="s">
         <v>501</v>
@@ -7681,7 +7681,7 @@
         <v>290</v>
       </c>
       <c r="D241">
-        <v>2446</v>
+        <v>3478</v>
       </c>
       <c r="E241" t="s">
         <v>502</v>
@@ -7707,7 +7707,7 @@
         <v>273</v>
       </c>
       <c r="D242">
-        <v>177</v>
+        <v>338</v>
       </c>
       <c r="E242" t="s">
         <v>503</v>
@@ -7733,7 +7733,7 @@
         <v>277</v>
       </c>
       <c r="D243">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E243" t="s">
         <v>504</v>
@@ -7753,7 +7753,7 @@
         <v>290</v>
       </c>
       <c r="D244">
-        <v>401</v>
+        <v>697</v>
       </c>
       <c r="E244" t="s">
         <v>505</v>
@@ -7779,7 +7779,7 @@
         <v>286</v>
       </c>
       <c r="D245">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="E245" t="s">
         <v>426</v>
@@ -7805,7 +7805,7 @@
         <v>278</v>
       </c>
       <c r="D246">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="E246" t="s">
         <v>442</v>
@@ -7831,7 +7831,7 @@
         <v>287</v>
       </c>
       <c r="D247">
-        <v>1573</v>
+        <v>2785</v>
       </c>
       <c r="E247" t="s">
         <v>506</v>
@@ -7857,7 +7857,7 @@
         <v>270</v>
       </c>
       <c r="D248">
-        <v>168</v>
+        <v>253</v>
       </c>
       <c r="E248" t="s">
         <v>507</v>
@@ -7883,7 +7883,7 @@
         <v>275</v>
       </c>
       <c r="D249">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E249" t="s">
         <v>508</v>
@@ -7903,7 +7903,7 @@
         <v>270</v>
       </c>
       <c r="D250">
-        <v>200</v>
+        <v>352</v>
       </c>
       <c r="E250" t="s">
         <v>509</v>
@@ -7929,7 +7929,7 @@
         <v>295</v>
       </c>
       <c r="D251">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="E251" t="s">
         <v>510</v>
@@ -7949,7 +7949,7 @@
         <v>275</v>
       </c>
       <c r="D252">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E252" t="s">
         <v>483</v>
@@ -7969,7 +7969,7 @@
         <v>265</v>
       </c>
       <c r="D253">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E253" t="s">
         <v>432</v>
@@ -7989,7 +7989,7 @@
         <v>267</v>
       </c>
       <c r="D254">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E254" t="s">
         <v>511</v>
@@ -8015,7 +8015,7 @@
         <v>266</v>
       </c>
       <c r="D255">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E255" t="s">
         <v>283</v>
